--- a/AI/G検定/G検定 最短合格指南書.xlsx
+++ b/AI/G検定/G検定 最短合格指南書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ILSVRC!$A$1:$S$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$209</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$467</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="327">
   <si>
     <t>AI（Artifical Intelligence：人工知能）とは（AIの定義）</t>
     <rPh sb="26" eb="28">
@@ -1895,6 +1895,2832 @@
     <t>ワークを実現した</t>
     <rPh sb="4" eb="6">
       <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIの問題</t>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイ・プロブレム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明確に定義されたルールのため、非常に限定された状況の中で解を求める問題のこと。</t>
+    <rPh sb="0" eb="2">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため現実の問題と乖離しすぎるという問題がある。</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンジツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索と推論で解ける問題はトイプロブレムに限られることが明らかになり、第一次AIブームは</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイロン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終焉を迎えた。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウエン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレーム問題</t>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題に関係する状況、問題に関係しない状況を判別するは難しいという問題。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械は課題に対して与えられた知識で回答する。 周りの状況を判断するためには必要な知識が</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増えるため、レスポンスが悪くなる。</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間は課題に関係する知識と関係しない知識をすぐに判断することができるが、機械はそれが</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苦手である。</t>
+    <rPh sb="0" eb="2">
+      <t>ニガテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強いAIと弱いAI</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIが真の推論と問題解決能力を持っているかを否かを議論する際に用いられる用語。</t>
+    <rPh sb="3" eb="4">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スイロン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ギロン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強いAI</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間同等に自意識を持ち、人間と同等に物事を思考・認識・理解し、意思決定できるAI</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウトウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジイシキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウトウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モノゴト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のことを強いAIという。</t>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱いAI</t>
+    <rPh sb="0" eb="1">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般にAIと聞くと、強いAIをイメージする人が多いかもしれないが、強いAIはまだ実現できて</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おらず、実際に実現できるかを疑問視する声も多い。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ギモンシ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心を持たず、限定された知能によって、特定の問題を解決するAIのこと。</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予測や学習、識別などの一部の知的作業をAIが実行する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身体性</t>
+    <rPh sb="0" eb="3">
+      <t>シンタイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身体性とは、AIの分野では、物理的な身体があり、学習や識別などに良い影響をもたらせる</t>
+    <rPh sb="0" eb="3">
+      <t>シンタイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シンタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果や性質のことをいう。</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり、人間の五感が機械にもあれば、人間と同様の強いAIが実現できるのではということ。</t>
+    <rPh sb="4" eb="6">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンボルグラウンディング問題</t>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンボルグラウンディング問題（記号設置問題）とは、機械に概念、記号（シンボル）を知識として</t>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガイネン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与えたとしても、それが意味するものと結びつける（グラウンドする）ことができるかどうかという問題</t>
+    <rPh sb="0" eb="1">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴量設計</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴量設計とは、画像認識などを実施する際に、インプットとなるデータのどんな特徴とその程度に</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注目して判定したら良いかの指標である特徴量を定義することです。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴量の設計は、従来の機械学習においては、結果の制度に影響を与える重要な作業で、研究の</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕の見せ所であった。</t>
+    <rPh sb="0" eb="1">
+      <t>ウデ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ドコロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、ディープラーニングの登場により、機械が自分で学習データから特徴量を抽出できるように</t>
+    <rPh sb="14" eb="16">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なったため、人間が特徴量設計をする必要がなくなった。</t>
+    <rPh sb="6" eb="8">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このことから、ディープラーニングは、特徴表現学習と呼ばれている。</t>
+    <rPh sb="18" eb="20">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チューリングテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チューリングテストとは、ある機械がAIかどうかを判定するためのテストのことをいう。</t>
+    <rPh sb="14" eb="16">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国語の部屋</t>
+    <rPh sb="0" eb="3">
+      <t>チュウゴクゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ELIZA（イライザ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARRY(パリ―）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンギュラリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンギュラリティ（技術的特異点）とは、AI自身が自分より賢いAIを作り出すようになる点のことです。</t>
+    <rPh sb="9" eb="12">
+      <t>ギジュツテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トクイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カシコ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうなると、より賢いAIを無限大に作れるようになる。</t>
+    <rPh sb="8" eb="9">
+      <t>カシコ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ムゲンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械学習の具体的な手法</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代表的な手法</t>
+    <rPh sb="0" eb="3">
+      <t>ダイヒョウテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械学習の代表的な手法は、教師あり学習、教師なし学習、強化学習の３つです。</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ダイヒョウテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習のためにデータを入力する際に、学習データと教師データを与える学習方法</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇学習データ</t>
+    <rPh sb="1" eb="3">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇教師データ</t>
+    <rPh sb="1" eb="3">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習に使用するデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習データが何であるかを示すラベル</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師あり学習によって、回帰と分類ができるようになる。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師データを使わず、機械にデータの本質的な構造（特徴量）を発見させる学習方法。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ホンシツテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師なし学習によって、入力をカテゴリにクラスタリングしたり、抽象化したりできるようになる。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>チュウショウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有名な教師なし学習の手法として、クラスタリングがある。</t>
+    <rPh sb="0" eb="2">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●教師あり学習</t>
+    <rPh sb="1" eb="3">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●教師なし学習</t>
+    <rPh sb="1" eb="3">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●強化学習</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある環境内におけるエージェントに、試行錯誤を通じて価値（報酬）を最大化する行動を発見</t>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>サイダイカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>させる学習方法。</t>
+    <rPh sb="3" eb="5">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エージェントは環境内の状況により行動を選択します。 その際は報酬ができるだけ大きくなるように</t>
+    <rPh sb="7" eb="9">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探索をします。</t>
+    <rPh sb="0" eb="2">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化学習では次の用語が使用される。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エージェント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある環境内で動くプレイヤー</t>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エージェントが置かれている環境</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収益</t>
+    <rPh sb="0" eb="2">
+      <t>シュウエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エージェントが行動することで得ることができる評価値</t>
+    <rPh sb="7" eb="9">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価値関数</t>
+    <rPh sb="0" eb="2">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将来的に得られる収益の期待値を表す関数</t>
+    <rPh sb="0" eb="3">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方策</t>
+    <rPh sb="0" eb="2">
+      <t>ホウサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エージェントがとる行動</t>
+    <rPh sb="9" eb="11">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある状態のときに、どの行動をとるべきかを判断するための関数。</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定的に決める方策と、確率的に決める方策がある。</t>
+    <rPh sb="0" eb="3">
+      <t>ケッテイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウサク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カクリツテキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化学習の有名な手法としてQ学習がある。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのデータが何であるかを示すもの</t>
+    <rPh sb="6" eb="7">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データにラベルを付ける事をラベル付けという。</t>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルは、誰が見ても同じ基準で分類できるラベル体系が理想です。</t>
+    <rPh sb="5" eb="6">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイケイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●回帰＜教師あり学習＞</t>
+    <rPh sb="1" eb="3">
+      <t>カイキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師あり学習の１つの手法で、入力から出力を予測する。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回帰</t>
+    <rPh sb="0" eb="2">
+      <t>カイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形回帰</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非線形回帰</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単回帰分析</t>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重回帰分析</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●分類＜教師あり学習＞</t>
+    <rPh sb="1" eb="3">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師あり学習のひとつで、入力を2種類以上のクラスに分類します。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>シュルイイジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●クラスタリング＜教師なし学習＞</t>
+    <rPh sb="9" eb="11">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師なし学習のひとつで、入力として与えられた学習データ群を特徴が似た集まり（クラスタ）</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に分け、データの本質的な構造を浮かび上がらせる手法です。</t>
+    <rPh sb="1" eb="2">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ホンシツテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メリット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膨大な量のデータを機械が自動でクラスタに分類してくれることです。</t>
+    <rPh sb="0" eb="2">
+      <t>ボウダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これによって、人間が思いつかなかった基準で分類してくれるなどの発見も生まれます。</t>
+    <rPh sb="7" eb="9">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デメリット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理の負荷が大きい。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次元の呪いという問題を抱えている。</t>
+    <rPh sb="0" eb="2">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスタリングの具体的な手法として、k-means法がある。</t>
+    <rPh sb="8" eb="11">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●抽象化</t>
+    <rPh sb="1" eb="4">
+      <t>チュウショウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象から注目する要素のみを抜き出し、他の要素は無視する事。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●次元（特徴量）の呪い</t>
+    <rPh sb="1" eb="3">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械学習において、データの次元が増えると、計算量や学習に必要なサンプル数が爆発的に</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>バクハツテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増えてしまい、計算時間が指数関数的に増加する問題のことです。</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シスウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カンスウテキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械学習をする際に、この次元（特徴量）を多くしすぎると、必要な計算量が膨大となり、</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ボウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>十分な学習ができなくなる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●次元削減（次元圧縮）</t>
+    <rPh sb="1" eb="3">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アッシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの情報を失わないように、データを低い次元に圧縮する手法の総称。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>アッシュク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次元削減によって、データに複数ある特徴量のうち、分析に不要なものを削除します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜例＞</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学90点、物理65点、化学85点のテスト結果の３つを、１つにまとめて理数系科目</t>
+    <rPh sb="0" eb="2">
+      <t>スウガク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カガク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>リスウケイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８０点とする。</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次元削減によって、次元の呪いから解放できる場合がある。</t>
+    <rPh sb="0" eb="2">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノロ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次元削減の手法としては、主成分分析が有名です。</t>
+    <rPh sb="0" eb="2">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●主成分分析（Principal Component Analysis）</t>
+    <rPh sb="1" eb="4">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次元削減の手法。</t>
+    <rPh sb="0" eb="2">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主成分を見つけるためには、分散が最大になるような軸を探します。</t>
+    <rPh sb="0" eb="3">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相関のある複数の変数を、より少ない相関のない合成変数に変換することで、データの次元削減を</t>
+    <rPh sb="0" eb="2">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行います。</t>
+    <rPh sb="0" eb="1">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●半教師あり学習</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師あり学習では、全ての学習データで回答を与えていたが、回答を与えないパターンも含める</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習方法の事を半教師あり学習といい、教師あり学習よりも高い精度で学習できるといわれる事も</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●Q学習（Q-learning）</t>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化学習の一種。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある状態sのときに、行動aを選択する価値Q(s,a)を学習する方法。</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q(s,a)が最大になるaを最適な行動として選択すればよいのですが、最初は最大のQ(s,a)の値が</t>
+    <rPh sb="7" eb="9">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分からないため、ある状態sのときに、様々なaを実行し、それぞれの報酬を確認することで、</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最適なQ(s,a)を学習する。　この時のQ(s,a)をQ値と呼ぶ。</t>
+    <rPh sb="0" eb="2">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●F値</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F値とは、分類問題で使用される、予測結果の評価尺度。</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シャクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの扱い</t>
+    <rPh sb="4" eb="5">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械学習でより良い結果を得るために最も重要なことは、十分かつ高品質の学習データの集まり</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>コウヒンシツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のデータセットを準備することである。</t>
+    <rPh sb="8" eb="10">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データセットの準備は機械学習のスタート地点であり、ここで良いデータセットを準備できない場合は、</t>
+    <rPh sb="7" eb="9">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以後のプロセスでも満足のいく結果を得ることが難しくなる。</t>
+    <rPh sb="0" eb="2">
+      <t>イゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マンゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良いデータセットとは、「高品質から低品質まで人間が認識できるデータが揃ったデータセット」</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コウヒンシツ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>テイヒンシツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のことを言います。</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般的に機械学習は、訓練データ、検証データ、テストデータの3種類のデータセットを使用する。</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訓練データを用いて学習モデルを作成する。</t>
+    <rPh sb="0" eb="2">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検証データを用いて学習の結果を評価する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（学習で使用しないデータを用いる）</t>
+    <rPh sb="1" eb="3">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストデータを使って作成したモデルの性能を評価する</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（学習でも検証でも使用していないデータを用いる）</t>
+    <rPh sb="1" eb="3">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過学習（オーバーフィッティング）を避けるためには、この3種類のデータセットに分ける必要がある。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特にテストデータは、学習にも検証にも使用しないデータであることが必須になる。</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データセットは、様々なサイトで様々な種類が公開されている。</t>
+    <rPh sb="8" eb="10">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kaggle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSパブリックデータセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国立情報学研究所</t>
+    <rPh sb="0" eb="2">
+      <t>コクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジョウホウガク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケンキュウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MNIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImageNet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●データ拡張</t>
+    <rPh sb="4" eb="6">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元の学習データに変換を加えてデータ量を増やす手法です。</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディープラーニングでは大量のデータが必要なため、このデータ拡張によるデータの</t>
+    <rPh sb="11" eb="13">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水増しが有用です。</t>
+    <rPh sb="0" eb="2">
+      <t>ミズマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応用</t>
+    <rPh sb="0" eb="2">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形回帰</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師あり</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回帰</t>
+    <rPh sb="0" eb="2">
+      <t>カイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロジスティック回帰</t>
+    <rPh sb="7" eb="9">
+      <t>カイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SVM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回帰、分類</t>
+    <rPh sb="0" eb="2">
+      <t>カイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k-NN法</t>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k-Nearest Neighor k-近傍法</t>
+    <rPh sb="20" eb="22">
+      <t>キンボウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定木</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムフォレスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勾配ブースティング木</t>
+    <rPh sb="0" eb="2">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューラルネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k-means法</t>
+    <rPh sb="7" eb="8">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師なし</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスタリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k-平均法</t>
+    <rPh sb="2" eb="4">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DQN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化学習</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1969,17 +4795,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2189,8 +5022,8 @@
       <xdr:rowOff>131378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>223345</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>157655</xdr:rowOff>
     </xdr:to>
@@ -2257,7 +5090,7 @@
       <xdr:rowOff>53864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>144517</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>65689</xdr:rowOff>
@@ -2324,7 +5157,7 @@
       <xdr:rowOff>127437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>6569</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>59121</xdr:rowOff>
@@ -2391,7 +5224,7 @@
       <xdr:rowOff>10509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>229914</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>124811</xdr:rowOff>
@@ -2458,7 +5291,7 @@
       <xdr:rowOff>95906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>349469</xdr:colOff>
       <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2561,14 +5394,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>179990</xdr:colOff>
       <xdr:row>152</xdr:row>
       <xdr:rowOff>55179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>72259</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>32846</xdr:rowOff>
     </xdr:to>
@@ -2628,14 +5461,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>194442</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>109045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>86711</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>86711</xdr:rowOff>
     </xdr:to>
@@ -2699,13 +5532,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>294290</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>162911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>315311</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>26277</xdr:rowOff>
@@ -3054,15 +5887,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J176"/>
+  <dimension ref="A2:R417"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A168" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A406" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3070,105 +5903,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3243,239 +6090,239 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
         <v>29</v>
       </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="G68" t="s">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I68" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
         <v>30</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F75" t="s">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H75" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F76" t="s">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H76" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D79" t="s">
         <v>40</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F80" t="s">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H80" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F81" t="s">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="H81" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F82" t="s">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="H82" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
         <v>47</v>
       </c>
-      <c r="H86" t="s">
+      <c r="J86" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D87" t="s">
         <v>48</v>
       </c>
-      <c r="H87" t="s">
+      <c r="J87" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="H88" t="s">
+    <row r="88" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="J88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90" t="s">
         <v>52</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="G91" t="s">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="I91" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="G93" t="s">
+    <row r="93" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="I93" t="s">
         <v>55</v>
       </c>
-      <c r="H93" t="s">
+      <c r="J93" t="s">
         <v>56</v>
       </c>
-      <c r="J93" t="s">
+      <c r="N93" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="G94" t="s">
+    <row r="94" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="I94" t="s">
         <v>57</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>58</v>
       </c>
-      <c r="J94" t="s">
+      <c r="N94" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:14" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
         <v>61</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
         <v>62</v>
       </c>
-      <c r="J96" t="s">
+      <c r="N96" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="J97" t="s">
+    <row r="97" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="N97" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="98" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D98" t="s">
         <v>63</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>64</v>
       </c>
-      <c r="J98" t="s">
+      <c r="N98" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="J99" t="s">
+    <row r="99" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="N99" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E101" t="s">
+    <row r="101" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="G101" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F103" t="s">
+    <row r="103" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="H103" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F104" s="1" t="s">
+    <row r="104" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="H104" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F106" t="s">
+    <row r="106" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="H106" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F107" t="s">
+    <row r="107" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="H107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F108" t="s">
+    <row r="108" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="H108" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F110" t="s">
+    <row r="110" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="H110" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F111" t="s">
+    <row r="111" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="H111" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F112" t="s">
+    <row r="112" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="H112" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3543,7 +6390,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C129">
         <v>3</v>
       </c>
@@ -3551,12 +6398,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D130" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C131">
         <v>4</v>
       </c>
@@ -3564,57 +6411,57 @@
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D132" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C134" t="s">
         <v>93</v>
       </c>
-      <c r="E134" t="s">
+      <c r="G134" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E135" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G135" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E136" t="s">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G136" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C138" t="s">
         <v>97</v>
       </c>
-      <c r="E138">
+      <c r="G138">
         <v>1</v>
       </c>
-      <c r="F138" t="s">
+      <c r="H138" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E139">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G139">
         <v>2</v>
       </c>
-      <c r="F139" t="s">
+      <c r="H139" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E140">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G140">
         <v>3</v>
       </c>
-      <c r="F140" t="s">
+      <c r="H140" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B142">
         <v>4</v>
       </c>
@@ -3622,7 +6469,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C144" t="s">
         <v>102</v>
       </c>
@@ -3677,19 +6524,1224 @@
         <v>112</v>
       </c>
     </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C182" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C183" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C185" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C186" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C192" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C193" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C195" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C196" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C200" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D203" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D204" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D206" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D207" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D211" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D213" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C217" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C218" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C220" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C224" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C225" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C226" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B228">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C230" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C231" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C233" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C234" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C236" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C237" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C239" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B241">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C243" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C245" t="s">
+        <v>181</v>
+      </c>
+      <c r="D245" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D246" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D247" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B249">
+        <v>8</v>
+      </c>
+      <c r="C249" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C251" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C253" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C259" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C261" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C262" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C263" t="s">
+        <v>192</v>
+      </c>
+      <c r="H263" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C264" t="s">
+        <v>193</v>
+      </c>
+      <c r="H264" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C266" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C268" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C269" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C271" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="273" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C273" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="275" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C275" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="276" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C276" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="277" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C277" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="279" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C279" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="280" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C280" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="282" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C282" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="283" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283" t="s">
+        <v>208</v>
+      </c>
+      <c r="I283" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="284" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>209</v>
+      </c>
+      <c r="I284" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="285" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285" t="s">
+        <v>217</v>
+      </c>
+      <c r="I285" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="286" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C286">
+        <v>4</v>
+      </c>
+      <c r="D286" t="s">
+        <v>212</v>
+      </c>
+      <c r="I286" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="287" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C287">
+        <v>5</v>
+      </c>
+      <c r="D287" t="s">
+        <v>214</v>
+      </c>
+      <c r="I287" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="288" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C288">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>216</v>
+      </c>
+      <c r="I288" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="289" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I289" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="291" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C291" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="293" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C293" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="294" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C294" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="295" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C295" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="296" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C296" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="298" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C298" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="299" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C299" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="301" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D301" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="302" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="G302" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="303" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H303" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="304" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="H304" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="305" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G305" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="307" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C307" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="308" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C308" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="310" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C310" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="311" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C311" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="312" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C312" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="314" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C314" t="s">
+        <v>238</v>
+      </c>
+      <c r="G314" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="315" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G315" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="317" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C317" t="s">
+        <v>241</v>
+      </c>
+      <c r="G317" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="318" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G318" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="320" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C320" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="322" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C322" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="323" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C323" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="325" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C325" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="326" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C326" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="327" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C327" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="329" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C329" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="330" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C330" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="332" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C332" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="333" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C333" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="334" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C334" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="336" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C336" t="s">
+        <v>255</v>
+      </c>
+      <c r="G336" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="337" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G337" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="339" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C339" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="341" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C341" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="343" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C343" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="344" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C344" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="345" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C345" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="346" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C346" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="347" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C347" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="349" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C349" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="350" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C350" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="351" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C351" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="352" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C352" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C354" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C356" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C357" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C359" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C360" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C361" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C363" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C364" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C368" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C369" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C371" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C372" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C374" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C375" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C377" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="380" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C380">
+        <v>2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D381" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C382">
+        <v>3</v>
+      </c>
+      <c r="D382" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D383" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C385" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C386" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C388" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C390" t="s">
+        <v>293</v>
+      </c>
+      <c r="D390" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="391" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D391" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="392" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D392" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="394" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D394" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="395" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D395" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="397" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C397" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="399" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D399" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="400" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D400" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="401" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D401" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="403" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B403">
+        <v>3</v>
+      </c>
+      <c r="C403" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="405" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C405" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I405" s="5"/>
+      <c r="J405" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K405" s="5"/>
+      <c r="L405" s="5"/>
+      <c r="M405" s="5"/>
+      <c r="N405" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="O405" s="7"/>
+      <c r="P405" s="7"/>
+      <c r="Q405" s="7"/>
+      <c r="R405" s="7"/>
+    </row>
+    <row r="406" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C406" s="6">
+        <v>1</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E406" s="3"/>
+      <c r="F406" s="3"/>
+      <c r="G406" s="3"/>
+      <c r="H406" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I406" s="3"/>
+      <c r="J406" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K406" s="3"/>
+      <c r="L406" s="3"/>
+      <c r="M406" s="3"/>
+      <c r="N406" s="3"/>
+      <c r="O406" s="3"/>
+      <c r="P406" s="3"/>
+      <c r="Q406" s="3"/>
+      <c r="R406" s="3"/>
+    </row>
+    <row r="407" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C407" s="6">
+        <v>2</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E407" s="3"/>
+      <c r="F407" s="3"/>
+      <c r="G407" s="3"/>
+      <c r="H407" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I407" s="3"/>
+      <c r="J407" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K407" s="3"/>
+      <c r="L407" s="3"/>
+      <c r="M407" s="3"/>
+      <c r="N407" s="3"/>
+      <c r="O407" s="3"/>
+      <c r="P407" s="3"/>
+      <c r="Q407" s="3"/>
+      <c r="R407" s="3"/>
+    </row>
+    <row r="408" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C408" s="6">
+        <v>3</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E408" s="3"/>
+      <c r="F408" s="3"/>
+      <c r="G408" s="3"/>
+      <c r="H408" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I408" s="3"/>
+      <c r="J408" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K408" s="3"/>
+      <c r="L408" s="3"/>
+      <c r="M408" s="3"/>
+      <c r="N408" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="O408" s="3"/>
+      <c r="P408" s="3"/>
+      <c r="Q408" s="3"/>
+      <c r="R408" s="3"/>
+    </row>
+    <row r="409" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C409" s="6">
+        <v>4</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E409" s="3"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="3"/>
+      <c r="H409" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I409" s="3"/>
+      <c r="J409" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K409" s="3"/>
+      <c r="L409" s="3"/>
+      <c r="M409" s="3"/>
+      <c r="N409" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="O409" s="3"/>
+      <c r="P409" s="3"/>
+      <c r="Q409" s="3"/>
+      <c r="R409" s="3"/>
+    </row>
+    <row r="410" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C410" s="6">
+        <v>5</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E410" s="3"/>
+      <c r="F410" s="3"/>
+      <c r="G410" s="3"/>
+      <c r="H410" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I410" s="3"/>
+      <c r="J410" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K410" s="3"/>
+      <c r="L410" s="3"/>
+      <c r="M410" s="3"/>
+      <c r="N410" s="3"/>
+      <c r="O410" s="3"/>
+      <c r="P410" s="3"/>
+      <c r="Q410" s="3"/>
+      <c r="R410" s="3"/>
+    </row>
+    <row r="411" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C411" s="6">
+        <v>6</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E411" s="3"/>
+      <c r="F411" s="3"/>
+      <c r="G411" s="3"/>
+      <c r="H411" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I411" s="3"/>
+      <c r="J411" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K411" s="3"/>
+      <c r="L411" s="3"/>
+      <c r="M411" s="3"/>
+      <c r="N411" s="3"/>
+      <c r="O411" s="3"/>
+      <c r="P411" s="3"/>
+      <c r="Q411" s="3"/>
+      <c r="R411" s="3"/>
+    </row>
+    <row r="412" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C412" s="6">
+        <v>7</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E412" s="3"/>
+      <c r="F412" s="3"/>
+      <c r="G412" s="3"/>
+      <c r="H412" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I412" s="3"/>
+      <c r="J412" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K412" s="3"/>
+      <c r="L412" s="3"/>
+      <c r="M412" s="3"/>
+      <c r="N412" s="3"/>
+      <c r="O412" s="3"/>
+      <c r="P412" s="3"/>
+      <c r="Q412" s="3"/>
+      <c r="R412" s="3"/>
+    </row>
+    <row r="413" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C413" s="6">
+        <v>8</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E413" s="3"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="3"/>
+      <c r="H413" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I413" s="3"/>
+      <c r="J413" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K413" s="3"/>
+      <c r="L413" s="3"/>
+      <c r="M413" s="3"/>
+      <c r="N413" s="3"/>
+      <c r="O413" s="3"/>
+      <c r="P413" s="3"/>
+      <c r="Q413" s="3"/>
+      <c r="R413" s="3"/>
+    </row>
+    <row r="414" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C414" s="6">
+        <v>9</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E414" s="3"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="3"/>
+      <c r="H414" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I414" s="3"/>
+      <c r="J414" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="K414" s="3"/>
+      <c r="L414" s="3"/>
+      <c r="M414" s="3"/>
+      <c r="N414" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="O414" s="3"/>
+      <c r="P414" s="3"/>
+      <c r="Q414" s="3"/>
+      <c r="R414" s="3"/>
+    </row>
+    <row r="415" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C415" s="6">
+        <v>10</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E415" s="3"/>
+      <c r="F415" s="3"/>
+      <c r="G415" s="3"/>
+      <c r="H415" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I415" s="3"/>
+      <c r="J415" s="3"/>
+      <c r="K415" s="3"/>
+      <c r="L415" s="3"/>
+      <c r="M415" s="3"/>
+      <c r="N415" s="3"/>
+      <c r="O415" s="3"/>
+      <c r="P415" s="3"/>
+      <c r="Q415" s="3"/>
+      <c r="R415" s="3"/>
+    </row>
+    <row r="417" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D17:G17"/>
+  <mergeCells count="55">
+    <mergeCell ref="D415:G415"/>
+    <mergeCell ref="H415:I415"/>
+    <mergeCell ref="J415:M415"/>
+    <mergeCell ref="N415:R415"/>
+    <mergeCell ref="D413:G413"/>
+    <mergeCell ref="H413:I413"/>
+    <mergeCell ref="J413:M413"/>
+    <mergeCell ref="N413:R413"/>
+    <mergeCell ref="D414:G414"/>
+    <mergeCell ref="H414:I414"/>
+    <mergeCell ref="J414:M414"/>
+    <mergeCell ref="N414:R414"/>
+    <mergeCell ref="D411:G411"/>
+    <mergeCell ref="H411:I411"/>
+    <mergeCell ref="J411:M411"/>
+    <mergeCell ref="N411:R411"/>
+    <mergeCell ref="D412:G412"/>
+    <mergeCell ref="H412:I412"/>
+    <mergeCell ref="J412:M412"/>
+    <mergeCell ref="N412:R412"/>
+    <mergeCell ref="D409:G409"/>
+    <mergeCell ref="H409:I409"/>
+    <mergeCell ref="J409:M409"/>
+    <mergeCell ref="N409:R409"/>
+    <mergeCell ref="D410:G410"/>
+    <mergeCell ref="H410:I410"/>
+    <mergeCell ref="J410:M410"/>
+    <mergeCell ref="N410:R410"/>
+    <mergeCell ref="D407:G407"/>
+    <mergeCell ref="H407:I407"/>
+    <mergeCell ref="J407:M407"/>
+    <mergeCell ref="N407:R407"/>
+    <mergeCell ref="D408:G408"/>
+    <mergeCell ref="H408:I408"/>
+    <mergeCell ref="J408:M408"/>
+    <mergeCell ref="N408:R408"/>
+    <mergeCell ref="D406:G406"/>
+    <mergeCell ref="H406:I406"/>
+    <mergeCell ref="J406:M406"/>
+    <mergeCell ref="N406:R406"/>
+    <mergeCell ref="D405:G405"/>
+    <mergeCell ref="H405:I405"/>
+    <mergeCell ref="J405:M405"/>
+    <mergeCell ref="N405:R405"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D17:I17"/>
     <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
     <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3702,8 +7754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G35"/>
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
